--- a/config/Automation_Test_Suite.xlsx
+++ b/config/Automation_Test_Suite.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">

--- a/config/Automation_Test_Suite.xlsx
+++ b/config/Automation_Test_Suite.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="9630"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="23715" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Function" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Smoke!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Smoke!$A$1:$C$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>Module Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,14 @@
   </si>
   <si>
     <t>NoRun</t>
+  </si>
+  <si>
+    <t>PL40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL40_01_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -441,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -467,10 +475,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -478,10 +486,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -492,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -503,16 +511,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
       <formula1>"Run, NoRun"</formula1>
     </dataValidation>
   </dataValidations>
@@ -523,13 +542,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+      <formula1>"Run, NoRun"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/config/Automation_Test_Suite.xlsx
+++ b/config/Automation_Test_Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="23715" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="23715" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -481,7 +481,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/config/Automation_Test_Suite.xlsx
+++ b/config/Automation_Test_Suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="23715" windowHeight="9570"/>
@@ -75,18 +75,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -95,7 +95,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -150,7 +150,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,17 +452,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -484,7 +484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,10 +503,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -517,7 +517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -548,14 +548,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -638,7 +638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
